--- a/notify-options.xlsx
+++ b/notify-options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\hardware\raspberry_pi\pi-remind-hd-notify\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E3FD996-8BA5-4C72-9241-0127A715CA09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E213447-5E79-467F-8B13-2533DFB4B12D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{4C646565-84A4-42A3-BF75-5E5972A05684}"/>
+    <workbookView xWindow="-28428" yWindow="6492" windowWidth="34560" windowHeight="18684" xr2:uid="{4C646565-84A4-42A3-BF75-5E5972A05684}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,15 +32,59 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Reminder</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>busy_only</t>
+  </si>
+  <si>
+    <t>ignore_in_summary</t>
+  </si>
+  <si>
+    <t>reminder_only</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,8 +107,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,14 +432,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088B023D-B01B-4278-8498-F7626BFCE2D1}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="7" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>